--- a/data/trans_camb/P42-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P42-Estudios-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>8.996865945917731</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9.582157252778122</v>
+        <v>9.582157252778089</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.071495055295726</v>
+        <v>7.001661898444151</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.663591793826988</v>
+        <v>5.658748585589615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.209563055205012</v>
+        <v>6.028317238834204</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.38665393860222</v>
+        <v>13.26116360348444</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.19303645730615</v>
+        <v>12.38141175236452</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.84317310531883</v>
+        <v>12.84063787478651</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>0.1199889508181731</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1277948345842907</v>
+        <v>0.1277948345842903</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.09268396496975119</v>
+        <v>0.09244076495697844</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.07459722749764426</v>
+        <v>0.07396514863394056</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.08123073205687265</v>
+        <v>0.07898816992054419</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1828831120002133</v>
+        <v>0.1834141853773673</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1671218449746123</v>
+        <v>0.1693078942999786</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1746072904236353</v>
+        <v>0.1747978098649671</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>7.370580633266322</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.589795675869088</v>
+        <v>1.589795675869099</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.937738685738879</v>
+        <v>4.954352079299897</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.099685926786765</v>
+        <v>4.975837082442583</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.320545253813409</v>
+        <v>-1.300577167202594</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.929215297898782</v>
+        <v>10.04647837528816</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.851496392720877</v>
+        <v>9.598424745194405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.55981633950997</v>
+        <v>4.457271635993157</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>0.09223590879950136</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.01989480290161618</v>
+        <v>0.01989480290161632</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.06073324289073349</v>
+        <v>0.06054806335816384</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06266806101958684</v>
+        <v>0.06134107345805153</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.01625026710928376</v>
+        <v>-0.01674931893109641</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1270374704561691</v>
+        <v>0.1277312298244221</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1259245032702768</v>
+        <v>0.1233724659446211</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.05786290360797264</v>
+        <v>0.05622925296988317</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>4.77403665981031</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.686167203661371</v>
+        <v>1.68616720366136</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.09259196497347209</v>
+        <v>0.3187751745340138</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8242336681528857</v>
+        <v>1.259610395488373</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.422123786644763</v>
+        <v>-2.280687468309916</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.272367668140292</v>
+        <v>8.203120646744686</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.589527157344598</v>
+        <v>8.846742235256471</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.542620702583859</v>
+        <v>6.012556530545025</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>0.05438244847731271</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.01920762399023815</v>
+        <v>0.01920762399023803</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-7.208629136549e-05</v>
+        <v>0.003362413941326871</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.009081430561076709</v>
+        <v>0.01407014486986062</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.0266083254794663</v>
+        <v>-0.02512551763235742</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.09784832025808751</v>
+        <v>0.09553884285358277</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.100977036459438</v>
+        <v>0.1034741333250976</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.06450915843962311</v>
+        <v>0.07055335284642662</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.379540682221023</v>
+        <v>6.281668395065148</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.29732178582679</v>
+        <v>6.224792879463724</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.420465351528096</v>
+        <v>2.458617950051084</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.78587265788698</v>
+        <v>9.999007069882456</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.02349732126497</v>
+        <v>9.92344929770845</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.468672239461686</v>
+        <v>6.501150207835056</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.07958059526014639</v>
+        <v>0.07846028187471907</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.07870367034145841</v>
+        <v>0.07822309162386082</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.03028297672885411</v>
+        <v>0.03047093662548509</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.125352909428142</v>
+        <v>0.1283318427592736</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.128844395773961</v>
+        <v>0.1274589722809049</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.08257414838499336</v>
+        <v>0.08335802254735508</v>
       </c>
     </row>
     <row r="28">
